--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBDEAEC-C55E-4DB9-BDC6-91A616F7496F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642C8A3-B2B8-4EA4-9138-C1BA2F4B8411}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>会议日期</t>
   </si>
@@ -60,6 +60,36 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1DzEwLlc1dXOp78VNb4c8Vw</t>
+  </si>
+  <si>
+    <t>访谈杨枨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1V1UMjEP3usdr3A8VjhETPg</t>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/18ty1G0aG7p-PI2OV82oiJA</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非正式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,19 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,13 +485,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20180926</v>
       </c>
@@ -469,10 +502,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20180927</v>
       </c>
@@ -480,10 +516,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20180928</v>
       </c>
@@ -491,10 +530,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20181011</v>
       </c>
@@ -502,10 +544,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20181011</v>
       </c>
@@ -513,7 +558,38 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20181018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20181018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642C8A3-B2B8-4EA4-9138-C1BA2F4B8411}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76D0F4-3895-48A9-BC3E-CA791EC14644}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>会议日期</t>
   </si>
@@ -90,6 +90,17 @@
   <si>
     <t>常规</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1TT3gTAOLOrRGoaIDkdZ36Q</t>
   </si>
 </sst>
 </file>
@@ -465,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,6 +603,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20181025</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76D0F4-3895-48A9-BC3E-CA791EC14644}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E8753-88EC-4DB9-BBA0-76CEF0954111}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>会议日期</t>
   </si>
@@ -101,6 +101,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1TT3gTAOLOrRGoaIDkdZ36Q</t>
+  </si>
+  <si>
+    <t>组内评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/13FVtfy-4fGHotnpslbvP5Q</t>
   </si>
 </sst>
 </file>
@@ -476,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,6 +628,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20181028</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E8753-88EC-4DB9-BBA0-76CEF0954111}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB364E0-5906-484E-9B38-748279FBE2CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>会议日期</t>
   </si>
@@ -112,6 +112,34 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/13FVtfy-4fGHotnpslbvP5Q</t>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1_D67QT2K9GiTWx90qnRDlA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1eNUPjdKijup3glpbBAQKeA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1QRLUK2LghD53n-arFTc1sA</t>
+  </si>
+  <si>
+    <t>访谈杨枨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1sFsgqZkzT9ZHG3OZNK-KCw</t>
   </si>
 </sst>
 </file>
@@ -144,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,11 +200,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,31 +570,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>20180927</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>20180928</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -572,17 +612,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>20181011</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -600,31 +640,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>20181018</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>20181025</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -640,6 +680,51 @@
       </c>
       <c r="D10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20181029</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>20181031</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>20181101</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.docx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB364E0-5906-484E-9B38-748279FBE2CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A5A932-6B5D-4EA3-BEBC-EC252289AFE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>会议日期</t>
   </si>
@@ -140,6 +140,31 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1sFsgqZkzT9ZHG3OZNK-KCw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1HHCIfAWhwFpZqU_IeY_Wwg</t>
+  </si>
+  <si>
+    <t>需求工程项目计划评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1elrK4Nkp63AuyZrpmfdG1g</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/12I8mphh-OwXL1SpcyGJMZA</t>
   </si>
 </sst>
 </file>
@@ -527,15 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -727,6 +753,37 @@
         <v>32</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>20181107</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>20181108</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
